--- a/medicine/Enfance/Le_Trio_de_la_Tamise/Le_Trio_de_la_Tamise.xlsx
+++ b/medicine/Enfance/Le_Trio_de_la_Tamise/Le_Trio_de_la_Tamise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Trio de la Tamise (titre original : Pimlico Boys) est une série italienne de romans policiers pour la jeunesse écrite par Paul Dorval et parue en Italie de 1973 à 1980.
@@ -513,10 +525,12 @@
           <t>Auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série originale a été publiée en Italie par les éditions Mondadori sous le nom de Paul Dorval, pseudonyme derrière lequel se cache le journaliste Alessandro Cairoli[1].
-Les éditions Hachette ont, quant à elles, publié la série originale sous le pseudonyme d'Edward Jones, choisi par l'auteur pour donner une consonance purement anglo-saxonne à l'auteur, les intrigues des romans ayant pour cadre l'Angleterre, et les personnages portant des noms anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série originale a été publiée en Italie par les éditions Mondadori sous le nom de Paul Dorval, pseudonyme derrière lequel se cache le journaliste Alessandro Cairoli.
+Les éditions Hachette ont, quant à elles, publié la série originale sous le pseudonyme d'Edward Jones, choisi par l'auteur pour donner une consonance purement anglo-saxonne à l'auteur, les intrigues des romans ayant pour cadre l'Angleterre, et les personnages portant des noms anglais.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Caractéristique de la série et personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'action des romans du Trio de la Tamise se déroule le plus souvent à Londres en Angleterre (à l'exception de quelques titres ayant lieu en Italie) et mettent en scène trois adolescents londoniens : Dave (Coffy), Ted (Frizzy) et Cathy (Trudy), ainsi que le chien-loup de Cathy appelé Watson qui accompagne souvent le trio dans ses aventures. Ils forment une équipe de détectives en herbe et sont très utiles à la police qui est souvent débordée. Scotland Yard, qui les considère comme des auxiliaires bénévoles, leur a même octroyé un laissez-passer pour faciliter leurs enquêtes.
 Ted et Cathy Cowley sont frère et sœur, tandis que le troisième membre de la bande, Dave, est un ami à eux. Ils habitent tous les trois à Londres.
@@ -581,104 +597,685 @@
           <t>Titres de la série</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La série originale italienne I Pimlico Boys compte dix-sept titres. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série originale italienne I Pimlico Boys compte dix-sept titres. 
 En France, seuls onze titres ont été édités.
-Mister AZ 201
-Titre original : Brivido al museo
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mister AZ 201</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Titre original : Brivido al museo
 Année de publication (Italie) : 1973
 no 67 dans la collection Il Giallo dei ragazzi
-Année de publication (Bibliothèque verte) : 1983
-Ne touchez pas aux pur-sang
-Titre original : Banditi e Purosangue
+Année de publication (Bibliothèque verte) : 1983</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ne touchez pas aux pur-sang</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Titre original : Banditi e Purosangue
 Année de publication (Italie) : 1973
 no 70 dans la collection Il Giallo dei ragazzi
-Année de publication (Bibliothèque verte) : mars 1983
-Le Canal 27 ne répond plus
-Titre original : Sulle onde del walkie talkie
+Année de publication (Bibliothèque verte) : mars 1983</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le Canal 27 ne répond plus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Titre original : Sulle onde del walkie talkie
 Année de publication (Italie) : 1973
 no 72 dans la collection Il Giallo dei ragazzi
 Année de publication (Bibliothèque verte) : 1984
 Traduction : Josette Gontier
 Illustrations : Charles Kraehn
-Résumé :
-Operazione controspionaggio
-Titre original : Operazione controspionaggio
+Résumé :</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Operazione controspionaggio</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Titre original : Operazione controspionaggio
 Année de publication (Italie) : 1974
 no 75 dans la collection Il Giallo dei ragazzi
-Année de publication en France : Inédit
-Dramma all'aeroporto
-Titre original : Dramma all'aeroporto
+Année de publication en France : Inédit</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dramma all'aeroporto</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Titre original : Dramma all'aeroporto
 Année de publication (Italie) : 1974
 no 81 dans la collection Il Giallo dei ragazzi
-Année de publication en France : Inédit
-I Pimlico Boys non perdonano
-Titre original : I Pimlico Boys non perdonano
+Année de publication en France : Inédit</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I Pimlico Boys non perdonano</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Titre original : I Pimlico Boys non perdonano
 Année de publication (Italie) : 1975
 no 85 dans la collection Il Giallo dei ragazzi
-Année de publication en France : Inédit
-Des routiers peu sympa…
-Titre original : Le bande dei Tir
+Année de publication en France : Inédit</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Des routiers peu sympa…</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Titre original : Le bande dei Tir
 Année de publication (Italie) : 1975
 no 88 dans la collection Il Giallo dei ragazzi
 Année de publication (Bibliothèque verte) : 1981
 Traduction : Josette Gontier
 Illustrations : François Dermaut
-Résumé :
-Panique sur Londres
-Titre original : Londra nel terrore
+Résumé :</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Panique sur Londres</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Titre original : Londra nel terrore
 Année de publication (Italie) : 1975
 no 94 dans la collection Il Giallo dei ragazzi
-Année de publication (Bibliothèque verte) : 1981
-Alerte à la bombe
-Titre original : I pirati dell'atomo
+Année de publication (Bibliothèque verte) : 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Alerte à la bombe</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Titre original : I pirati dell'atomo
 Année de publication (Italie) : 1976
 no 99 dans la collection Il Giallo dei ragazzi
-Année de publication (Bibliothèque verte) : 1981
-La Secte des Condors
-Titre original : La setta dei Condor
+Année de publication (Bibliothèque verte) : 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>La Secte des Condors</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Titre original : La setta dei Condor
 Année de publication (Italie) : 1976
 no 107 dans la collection Il Giallo dei ragazzi
-Année de publication (Bibliothèque verte) : 1981
-Les Hortensias maudits
-Titre original : Le ortensie maledette
+Année de publication (Bibliothèque verte) : 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les Hortensias maudits</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Titre original : Le ortensie maledette
 Année de publication (Italie) : 1976
 no 112 dans la collection Il Giallo dei ragazzi
-Année de publication (Bibliothèque verte) : 1981
-Les Frères Jumeaux
-Titre original : I ventiquattro parasoli
+Année de publication (Bibliothèque verte) : 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Les Frères Jumeaux</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Titre original : I ventiquattro parasoli
 Année de publication (Italie) : 1977
 no 116 dans la collection Il Giallo dei ragazzi
 Année de publication (Bibliothèque verte) : 1981
 Traduction : Lydie Mazzoni
 Illustrations : François Dermaut
-Résumé :
-Un drame au cirque
-Titre original : Cinque mosche assassine
+Résumé :</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Un drame au cirque</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Titre original : Cinque mosche assassine
 Année de publication (Italie) : 1977
 no 122 dans la collection Il Giallo dei ragazzi
-Année de publication (Bibliothèque verte) : 1982
-Le Rire qui tue
-Titre original : La morte che ride
+Année de publication (Bibliothèque verte) : 1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Le Rire qui tue</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Titre original : La morte che ride
 Année de publication (Italie) : 1978
 no 128 dans la collection Il Giallo dei ragazzi
 Année de publication (Bibliothèque verte) : 1982
 Traduction : Madeleine Juffé
 Illustrations : François Dermaut
-Résumé :
-Nell'occhio del mirino
-Titre original : Nell'occhio del mirino
+Résumé :</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Nell'occhio del mirino</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Titre original : Nell'occhio del mirino
 Année de publication (Italie) : 1978
 no 134 dans la collection Il Giallo dei ragazzi
-Année de publication en France : Inédit
-Il signore nero di Norfolk
-Titre original : Il signore nero di Norfolk
+Année de publication en France : Inédit</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Il signore nero di Norfolk</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Titre original : Il signore nero di Norfolk
 Année de publication (Italie) : 1979
 no 140 dans la collection Il Giallo dei ragazzi
-Année de publication en France : Inédit
-La Fabbrica delle belve
-Titre original : La Fabbrica delle belve
+Année de publication en France : Inédit</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Trio_de_la_Tamise</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Titres de la série</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>La Fabbrica delle belve</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Titre original : La Fabbrica delle belve
 Année de publication (Italie) : 1980
 no 152 dans la collection Il Giallo dei ragazzi
 Année de publication en France : Inédit</t>
